--- a/tolstoy_bot/leo.xlsx
+++ b/tolstoy_bot/leo.xlsx
@@ -267,10 +267,28 @@
     <t>[pause]</t>
   </si>
   <si>
+    <t>Вы перешли в начало квеста!</t>
+  </si>
+  <si>
     <t>[initial]</t>
   </si>
   <si>
-    <t>Вы перешли в начало квеста!</t>
+    <t>Приветствуем, любитель приключений! Вы сможете стать частью вело-квеста имени Льва Толстого. Вы узнаете больше о самой громкой медийной личности того времени и о людях, которые его окружали. 
+Мы постарались в формате квеста осветить самые любопытные стороны его личности. Все, что нужно для старта – смартфон и велосипед: если велосипеда нет, арендуйте его через приложение “Велобайк”. Выберите день, соберите друзей и отправляйтесь в путь!
+Приблизительное время прохождения квеста: 1,5 часа + 1 час на посещение усадьбы
+День недели: любой, кроме понедельника (не работает Усадьба Толстого в Хамовниках)
+Стоимость: 300 рублей - посещение Усадьбы (100 рублей для студентов) + аренда велосипеда в случае необходимости.</t>
+  </si>
+  <si>
+    <t>/start</t>
+  </si>
+  <si>
+    <t>Лев Толстой был фигурой невероятного масштаба и втягивал в орбиту своего влияния огромное число людей самых разных званий и сословий – от высшего общества до крестьян, от священников до революционеров и интеллигенции. О Льве Николаевиче осталось очень много воспоминаний: все его переписки, дневники и произведения оцифрованы и находятся в свободном доступе.
+Кстати, велосипед для нашего квеста выбран неслучайно: писатель, несмотря на свой преклонный возраст, был одним из первых москвичей, освоивших данный вид транспорта.
+Когда будете готовы начать, напишите в строку ввода «готов».</t>
+  </si>
+  <si>
+    <t>begin</t>
   </si>
   <si>
     <t>Приветствуем, любитель приключений! Вы сможете стать частью вело-квеста по местам Москвы Льва Толстого на рубеже 19-20 веков. Все, что нужно для этого – смартфон и велосипед: если велосипеда нет, мы подскажем, где его арендовать. Выберите день, соберите друзей и отправляйтесь в путь! Мы раскроем все карты: где Лев Николаевич жил, что ел, кого навещал и как складывалась жизнь главной медийной личности того времени. На этом мы оставляем вас и передаем в заботливые руки самого русского писателя. 
@@ -280,38 +298,24 @@
  Когда будете готовы начать, напишите в строку ввода «готов».</t>
   </si>
   <si>
-    <t>begin</t>
-  </si>
-  <si>
-    <t>/start</t>
+    <t>вводит текст</t>
   </si>
   <si>
     <t>Дорогой друг! Приветствую из глубин истории, ваш Лев Николаевич. Я предлагаю вам прогуляться по Москве моего времени. Для того чтобы вы, дорогой друг, все успели, не забудьте велосипед. И не проспите - начните прогулку по моей Москве ближе к 14:00, чтобы успеть посмотреть на нашу Усадьбу. Кстати, это я с Соней, а рядом мой велосипед. (Поприветствуйте в ответ Льва Николаевича) [image|Velosiped.jpg]</t>
   </si>
   <si>
-    <t>вводит текст</t>
-  </si>
-  <si>
-    <t>[anytext]</t>
+    <t>Первое задание ждет вас по адресу Земледельческий пер., д. 7–9. Здесь вы узнаете о взаимоотношениях писателя с деятелями изобразительного искусства.
+Напишите "далее", чтобы узнать подробности</t>
   </si>
   <si>
     <t>Кстати, велосипеды - это, конечно, очень здорово. Я впервые сел на велосипед поздно, в возрасте 67 лет. Как сейчас помню: занятия проходили в московском Манеже, где я неизменно наезжал на еще одну ученицу - полную даму с перьями - в силу неопытности. Меня эти упражнения ребячески веселили, хотя родные и окружающие волновались. Даже говорили, что вредно. А городская управа выдала мне билет с разрешением ездить по улицам города. В моей с Соней Усадьбе в Хамовниках до ваших пор стоит мой велосипед «Ровер» - благородный жеребец! В те времена я был в глубокой печали, но члены Московского Общества любителей велосипедов решили подарить мне велосипед и научить меня кататься по тропинкам сада в нашем с Соней доме, чем очень порадовали дедушку. 
  А у вас есть велосипед?</t>
   </si>
   <si>
-    <t>Приветствуем, любитель приключений! Вы сможете стать частью вело-квеста имени Льва Толстого. Вы узнаете больше о самой громкой медийной личности того времени и о людях, которые его окружали. 
-Мы постарались в формате квеста осветить самые любопытные стороны его личности. Все, что нужно для старта – смартфон и велосипед: если велосипеда нет, арендуйте его через приложение “Велобайк”. Выберите день, соберите друзей и отправляйтесь в путь!
-Приблизительное время прохождения квеста: 1,5 часа + 1 час на посещение усадьбы
-День недели: любой, кроме понедельника (не работает Усадьба Толстого в Хамовниках)
-Стоимость: 300 рублей - посещение Усадьбы (100 рублей для студентов) + аренда велосипеда в случае необходимости.</t>
+    <t>[anytext]</t>
   </si>
   <si>
     <t>real_begin</t>
-  </si>
-  <si>
-    <t>Лев Толстой был фигурой невероятного масштаба и втягивал в орбиту своего влияния огромное число людей самых разных званий и сословий – от высшего общества до крестьян, от священников до революционеров и интеллигенции. О Льве Николаевиче осталось очень много воспоминаний: все его переписки, дневники и произведения оцифрованы и находятся в свободном доступе.
-Кстати, велосипед для нашего квеста выбран неслучайно: писатель, несмотря на свой преклонный возраст, был одним из первых москвичей, освоивших данный вид транспорта.
-Когда будете готовы начать, напишите в строку ввода «готов».</t>
   </si>
   <si>
     <t>Если есть, отправляйтесь навстречу приключениям. Первое задание ждет вас по адресу Петроверигский переулок, дом 4. На моей карте этот дом обозначен цифрой 2. И, прошу прощения за неудобство, пропустите сообщения для этапа с арендой велосипедов (3 раза напечатав в строке ввода «дальше»). 
@@ -319,22 +323,48 @@
  И вот карта с пронумерованными адресами - поймете, какой предстоит маршрут. Сохраните ее. Но, полагаю, карта уже устарела - почти 2 века нас разделяет! Адреса по мере выполнений заданий будут даваться вашего времени, но карта есть только такая, которой следую сам. Ничего не поделать. [image|moscow_map.jpg]</t>
   </si>
   <si>
+    <t>Дом на земледельческом переулке лишь косвенно связан с личностью Толстого. В доме №9 жил Илья Репин – известный художник-передвижник. С Толстым их связывала не только любовь к искусству, но и долголетняя дружба. Дружба их началась в 1880 году, в этом доме. Позже художник напишет свои впечатления от первой встречи:</t>
+  </si>
+  <si>
+    <t>[image|MyCollages.jpg] Добро пожаловать на велостанцию, мой друг! В мое время это место выглядело совсем иначе. Хотя называла она также, в честь Малороссии. До разделения улицы Покровки и Маросейки в XIX веке, в быту этот участок Покровки называли Малороссейка, по стоявшему здесь Малороссийскому подворью (официальное представительство Украины).
+ Ну, хватит лирики. Мне пытались объяснить мои добрые друзья, что они имеют в виду, но позвольте просто передать информацию: "Скачайте приложение "Велобайк" в Appstore или Google Play, прочитайте правила пользования и вперед! Когда будете готовы начать путешествие, введите в строку сообщение готов".</t>
+  </si>
+  <si>
+    <t>следующее сообщение появляется с интервалом в 5 сек.</t>
+  </si>
+  <si>
+    <t>«...я представлял себе... что Лев Толстой очень своеобразный барин, граф, высокого роста, брюнет и не такой большеголовый... А это странный человек, какой-то деятель по страсти, убежденный проповедник... Он чем-то потрясен, расстроен - в голосе его звучит трагическая нота, а из-под густых грозных бровей светятся фосфорическим блеском глаза строгого покаяния».</t>
+  </si>
+  <si>
+    <t>О чем же говорили Репин и Толстой, встретившись в этом доме? Толстой, к удивлению Репина, назвал его любимые картины – «Бурлаки на Волге» и «Царевну Софью Алексеевну» – всего лишь этюдами, а наскучивший самому автору и давно забытый им холст «Досвитки» – картиной.  [image|repin.jpg]</t>
+  </si>
+  <si>
+    <t>Эту последнюю, выделенную Толстым картину, Репин и стал заканчивать после встречи с писателем. Позднее она получила название «Вечорницы». А «Запорожцев» художник оставил, опять же из-за Толстого (закончил он их лишь в 1891 г.). Таким образом, Репин воспринял толстовские заповеди.
+Вы готовы выполнить первое задание? Введите "готов" в строке сообщения</t>
+  </si>
+  <si>
+    <t>Первое задание ждет вас по адресу Петроверигский переулок, дом 4. На моей карте этот дом обозначен цифрой 2. Когда прибудете на место, сообщите об этом!</t>
+  </si>
+  <si>
     <t>Первое задание ждет вас по адресу Земледельческий пер., д. 7–9. Здесь вы узнаете о дружбе писателя с деятелями изобразительного искусства и коллегами по писательскому цеху.
 Напишите "далее", когда прибудете на место</t>
   </si>
   <si>
-    <t>[image|MyCollages.jpg] Добро пожаловать на велостанцию, мой друг! В мое время это место выглядело совсем иначе. Хотя называла она также, в честь Малороссии. До разделения улицы Покровки и Маросейки в XIX веке, в быту этот участок Покровки называли Малороссейка, по стоявшему здесь Малороссийскому подворью (официальное представительство Украины).
- Ну, хватит лирики. Мне пытались объяснить мои добрые друзья, что они имеют в виду, но позвольте просто передать информацию: "Скачайте приложение "Велобайк" в Appstore или Google Play, прочитайте правила пользования и вперед! Когда будете готовы начать путешествие, введите в строку сообщение готов".</t>
-  </si>
-  <si>
-    <t>Первое задание ждет вас по адресу Земледельческий пер., д. 7–9. Здесь вы узнаете о взаимоотношениях писателя с деятелями изобразительного искусства.
-Напишите "далее", чтобы узнать подробности</t>
-  </si>
-  <si>
-    <t>Первое задание ждет вас по адресу Петроверигский переулок, дом 4. На моей карте этот дом обозначен цифрой 2. Когда прибудете на место, сообщите об этом!</t>
-  </si>
-  <si>
     <t>приезжает на Петроверигский переулок, дом 4. вводит текст</t>
+  </si>
+  <si>
+    <t>Кто не писал портреты Толстого?
+1. Крамской
+2. Мясоедов
+3. Ге
+4. Серов</t>
+  </si>
+  <si>
+    <t>Если будет возможность теста, то сообщение приходит автоматически с интервалом в 5 сек.
+Если нет, то команда "вводит текст"</t>
+  </si>
+  <si>
+    <t>Дом на земледельческом переулке лишь косвенно связан с личностью Толстого. В доме №9 жил Илья Репин – известный художник-передвижник. С Толстым их связывала не только любовь к искусству, но и многолетняя дружба, которая началась в 1880 году, в этом доме. Позже художник напишет свои впечатления от первой встречи:</t>
   </si>
   <si>
     <t>[image|MyCollages-2.jpg] 
@@ -344,27 +374,19 @@
  (Напишите в строке ввода: «Полно вам, Лев Николаевич»)</t>
   </si>
   <si>
-    <t>Дом на земледельческом переулке лишь косвенно связан с личностью Толстого. В доме №9 жил Илья Репин – известный художник-передвижник. С Толстым их связывала не только любовь к искусству, но и долголетняя дружба. Дружба их началась в 1880 году, в этом доме. Позже художник напишет свои впечатления от первой встречи:</t>
-  </si>
-  <si>
-    <t>следующее сообщение появляется с интервалом в 5 сек.</t>
+    <t>Верно! Серов никогда не писал портрет писателя, он специализировался на исторических картинах.
+О дружбе писателя с этими и другими художниками, а также писателями, подробнее можно прочитать в статьях ниже. А можно прочитать эти статьи дома, а сейчас пролистнуть дальше, чтобы не тратить время! Оставляем на ваш выбор.</t>
   </si>
   <si>
     <t>Прошу прощения за минутки ностальгии, мой друг. Перейдем к заданиям, ради которых мы здесь сегодня собрались. 
  После их выполнения, мы отправим вам следующий адрес. (Напишите в строке ввода "С удовольствием"</t>
   </si>
   <si>
-    <t>«...я представлял себе... что Лев Толстой очень своеобразный барин, граф, высокого роста, брюнет и не такой большеголовый... А это странный человек, какой-то деятель по страсти, убежденный проповедник... Он чем-то потрясен, расстроен - в голосе его звучит трагическая нота, а из-под густых грозных бровей светятся фосфорическим блеском глаза строгого покаяния».</t>
-  </si>
-  <si>
-    <t>О чем же говорили Репин и Толстой, встретившись в этом доме? Толстой, к удивлению Репина, назвал его любимые картины – «Бурлаки на Волге» и «Царевну Софью Алексеевну» – всего лишь этюдами, а наскучивший самому автору и давно забытый им холст «Досвитки» – картиной.  [image|repin.jpg]</t>
-  </si>
-  <si>
-    <t>Дом на земледельческом переулке лишь косвенно связан с личностью Толстого. В доме №9 жил Илья Репин – известный художник-передвижник. С Толстым их связывала не только любовь к искусству, но и многолетняя дружба, которая началась в 1880 году, в этом доме. Позже художник напишет свои впечатления от первой встречи:</t>
-  </si>
-  <si>
-    <t>Эту последнюю, выделенную Толстым картину, Репин и стал заканчивать после встречи с писателем. Позднее она получила название «Вечорницы». А «Запорожцев» художник оставил, опять же из-за Толстого (закончил он их лишь в 1891 г.). Таким образом, Репин воспринял толстовские заповеди.
-Вы готовы выполнить первое задание? Введите "готов" в строке сообщения</t>
+    <t>url: http://telegra.ph/Tolstoj-i-hudozhniki-11-06 http://telegra.ph/Tolstoj-i-pisateli-11-08-2</t>
+  </si>
+  <si>
+    <t>Теперь отправляйтесь дальше - прямиком на Проточный переулок. Именно, без точного дома - локацией является весь переулок.
+Напишите нам "добрался", как окажетесь на месте</t>
   </si>
   <si>
     <t>Перепишите четверостишие типичного последователя “теории чистого искусства” Афанасия Афанасьевича Фета, превратив его в информационную заметку, которую бы оценили революционеры-демократы того времени (т.е. добавьте злободневности и гражданской позиции. Можете подробнее узнать о спорах вокруг тезиса “искусство ради искусства” в Интернете). Опирайся на повестку дня, чтобы быть максимально злободневным. 
@@ -372,15 +394,8 @@
  (напишите в строке ввода сообщения «Полно вам, Лев Николаевич»)</t>
   </si>
   <si>
-    <t>Кто не писал портреты Толстого?
-1. Крамской
-2. Мясоедов
-3. Ге
-4. Серов</t>
-  </si>
-  <si>
-    <t>Если будет возможность теста, то сообщение приходит автоматически с интервалом в 5 сек.
-Если нет, то команда "вводит текст"</t>
+    <t>Давайте начнем с задания на знание основных событий в биографии Льва Толстого и истории России в целом.
+Прочитайте 2 цитаты Толстого и ответьте на вопрос: О каком этапе жизни писателя идет речь? Ответьте одним существительным. Подсказка: эти действия происходили в 1882 году.</t>
   </si>
   <si>
     <t>Не примите за нравоучение, мой друг - мы уверены в вас, в вашем таланте и чести. Итак, четверостишие. 
@@ -392,49 +407,52 @@
  Продемонстируйте остроту вашего ума, добрый друг. (наберите текст в окно ввода)</t>
   </si>
   <si>
-    <t>Верно! Серов никогда не писал портрет писателя, он специализировался на исторических картинах.
-О дружбе писателя с этими и другими художниками, а также писателями, подробнее можно прочитать в статьях ниже. А можно прочитать эти статьи дома, а сейчас пролистнуть дальше, чтобы не тратить время! Оставляем на ваш выбор.</t>
+    <t>Пожалуйста, введите цифру от 1 до 4, соответствующую тому художнику, который не писал портрет Толстого.</t>
+  </si>
+  <si>
+    <t>“Будем записывать, считать, но не будем забывать, что если нам встретится человек раздетый и голодный, то помочь ему важнее всех возможных исследований, открытий всех возможных наук”</t>
+  </si>
+  <si>
+    <t>4|Серов</t>
   </si>
   <si>
     <t>Так, так, интересно! Дружинин и Анненков бы вами гордились. Отправляйтесь же на следующую локацию! Будем ждать вас по адресу Моховая 9 стр. 1 около здания МГУ. Когда прибудете на место, дайте нам знать (напишите сообщение в строке ввода "Приехали, дорогой друг")</t>
   </si>
   <si>
-    <t>url: http://telegra.ph/Tolstoj-i-hudozhniki-11-06 http://telegra.ph/Tolstoj-i-pisateli-11-08-2</t>
-  </si>
-  <si>
-    <t>Теперь отправляйтесь дальше - прямиком на Проточный переулок. Именно, без точного дома - локацией является весь переулок.
-Напишите нам "добрался", как окажетесь на месте</t>
-  </si>
-  <si>
-    <t>Пожалуйста, введите цифру от 1 до 4, соответствующую тому художнику, который не писал портрет Толстого.</t>
-  </si>
-  <si>
-    <t>Давайте начнем с задания на знание основных событий в биографии Льва Толстого и истории России в целом.
-Прочитайте 2 цитаты Толстого и ответьте на вопрос: О каком этапе жизни писателя идет речь? Ответьте одним существительным. Подсказка: эти действия происходили в 1882 году.</t>
-  </si>
-  <si>
-    <t>4|Серов</t>
-  </si>
-  <si>
-    <t>“Будем записывать, считать, но не будем забывать, что если нам встретится человек раздетый и голодный, то помочь ему важнее всех возможных исследований, открытий всех возможных наук”</t>
-  </si>
-  <si>
     <t>“Я предлагал воспользоваться *** для того, чтобы узнать нищету в Москве и помочь ей делом и деньгами, и сделать так, чтобы бедных не было в Москве”</t>
   </si>
   <si>
-    <t>Отправляйтесь на следующую локацию! Будем ждать вас по адресу Моховая 9 стр. 1 около здания МГУ. Когда прибудете на место, дайте нам знать (скиньте location).</t>
+    <t>Ваш ответ неверен! Подумайте ещё раз, откуда можно узнать, сколько в Мокве бедных, и введите одно слово</t>
+  </si>
+  <si>
+    <t>перепись|переписью|перепись населения|переписью населения</t>
   </si>
   <si>
     <t>Верно. В 1882 году он участвует в переписи московского населения, близко знакомится с жизнью обитателей городских трущоб.
 Хотите узнать о переписи подробнее? Введите "хочу" в строке сообщения</t>
   </si>
   <si>
+    <t>Отправляйтесь на следующую локацию! Будем ждать вас по адресу Моховая 9 стр. 1 около здания МГУ. Когда прибудете на место, дайте нам знать (скиньте location).</t>
+  </si>
+  <si>
+    <t>Для переписи Толстой выбрал себе один из самых сложных и трудных участков, Проточный переулок, где находилась ночлежка. Среди московской голытьбы это мрачное двухэтажное здание носило название «Ржанова крепость». Сейчас эти места располагаются в самом центре современной Москвы, там, где вы находитесь, на улице между Новинским бульваром и Смоленской набережной.</t>
+  </si>
+  <si>
+    <t>Кроме выполнения обязанностей переписчика, писатель старался войти в общение с несчастными, узнать подробности их нужды и помочь им деньгами и работой. Но люди сами не всегда шли на диалог, к тому же, речь их не всегда была понятна графу.</t>
+  </si>
+  <si>
+    <t>«Когда нам объяснили, что народ уже узнал об обходе квартир и уходит, мы попросили хозяина запереть ворота, а сами ходили на двор уговаривать уходивших людей», вспоминал позднее писатель.</t>
+  </si>
+  <si>
     <t>Локация 2</t>
   </si>
   <si>
     <t>Локация 3</t>
   </si>
   <si>
+    <t>А ведь значение переписи для России трудно переоценить. По сути, с освобождением крестьян страна перестала быть рабовладельческой и впервые попробовала собрать данные о полноправных гражданах Российской империи. Люди впервые сказали о себе, как о личностях с именами и своей историей. Подробнее о значении переписи и о том, что переживал Толстой, столкнувшись с реалиями Проточного переулка, можно прочитать в его  в статьях "О московской переписи" и "Так что же нам делать?" (ниже по ссылке). Для общего развития: на этом ресурсе располагаются все оцифрованные сочинения, дневники и письма Толстого, в том числе в формате epub.</t>
+  </si>
+  <si>
     <t>Локация 4</t>
   </si>
   <si>
@@ -453,68 +471,53 @@
     <t>Локация 9</t>
   </si>
   <si>
-    <t>Для переписи Толстой выбрал себе один из самых сложных и трудных участков, Проточный переулок, где находилась ночлежка. Среди московской голытьбы это мрачное двухэтажное здание носило название «Ржанова крепость». Сейчас эти места располагаются в самом центре современной Москвы, там, где вы находитесь, на улице между Новинским бульваром и Смоленской набережной.</t>
-  </si>
-  <si>
-    <t>Кроме выполнения обязанностей переписчика, писатель старался войти в общение с несчастными, узнать подробности их нужды и помочь им деньгами и работой. Но люди сами не всегда шли на диалог, к тому же, речь их не всегда была понятна графу.</t>
+    <t>URL: http://tolstoy.ru/creativity/journalismguide/94.php  http://tolstoy.ru/creativity/journalismguide/90.php</t>
   </si>
   <si>
     <t>[image|MyCollages-9.jpg] А это, друг мой, наш дом: тогда и сейчас. Приглашаю прогуляться в нашем любимом саду и поздороваться с тем, что хранит память о любившей его семье. Я купил этот дом в 1882 году и прожил здесь с родными 19 зим, до весны 1901 года. Здесь я создал около ста произведений, в том числе роман «Воскресение», повести «Смерть Ивана Ильича», «Крейцерова соната», «Отец Сергий».
  (введите сообщение в строку ввода "Мое почтение, мой друг").</t>
   </si>
   <si>
-    <t>«Когда нам объяснили, что народ уже узнал об обходе квартир и уходит, мы попросили хозяина запереть ворота, а сами ходили на двор уговаривать уходивших людей», вспоминал позднее писатель.</t>
+    <t>А теперь направляйтесь на Смоленский бульвар, д. 19
+Как окажетесь на месте, напишите нам "я здесь"</t>
+  </si>
+  <si>
+    <t>Вы стоите у места, в котором когда-то был примечательный для истории русского искусства дом. Знаменитый музыкально-литературный салон Владимира Одоевского: русского мыслителя эпохи романтизма, одного из основоположников русского музыкознания, филантропа и просто красавца. В этом доме беседовали о литературе и музыке такие гиганты мысли, как Лев Толстой, Иван Тургенев, Владимир Даль.</t>
   </si>
   <si>
     <t>Добро пожаловать. Оставляйте велосипед поблизости к дому или во дворе: у любезной охраны поинтересуйтесь, где именно. Потом проходите в "Контора изданiя", чтобы поздороваться с одной из домоправительниц и приобрести билет: мой дом в глубокой старости и нуждается в сохранении и поддержании. (введите сообщение в строку ввода "Будет сделано, Лев Николаевич")</t>
   </si>
   <si>
+    <t>Отношение графа к литературе и писателям своего времени категорично, и это оправдано профессией. Интересно, что касается других видов искусств, суждения Толстого также отличались своей непоколебимостью и при этом часто противоречили друг другу.</t>
+  </si>
+  <si>
     <t>Приобрели билет? Проходите в сад, мой друг. Там мы, наконец, познакомимся с вами: можем даже сделать совместную фотографию со мной и Софьей Андреевной. Нам подсказывают, что фотографию нужно выкладывать в “Интернет” и писать рядом “#толстойрулит” - мы не знаем зачем, однако рассмотрите это предложение от наших друзей, они добрые люди. (введите сообщение в строку ввода "Улыбнитесь, Лев Николаевич")</t>
-  </si>
-  <si>
-    <t>А ведь значение переписи для России трудно переоценить. По сути, с освобождением крестьян страна перестала быть рабовладельческой и впервые попробовала собрать данные о полноправных гражданах Российской империи. Люди впервые сказали о себе, как о личностях с именами и своей историей. Подробнее о значении переписи и о том, что переживал Толстой, столкнувшись с реалиями Проточного переулка, можно прочитать в его  в статьях "О московской переписи" и "Так что же нам делать?" (ниже по ссылке). Для общего развития: на этом ресурсе располагаются все оцифрованные сочинения, дневники и письма Толстого, в том числе в формате epub.</t>
   </si>
   <si>
     <t>Красиво, правда? не зависимости от времени года, этот сад всегда вдохновлял меня. Хорошо, что известные в Московском регионе садоводы и селекционеры вашего времени не забывают пополнять коллекцию декоративных растений. В этом саду очень хочется гулять в одиночестве и слушать музыку. Я всегда говорил, что музыка - это восхитительное искусство, способное объединять людей в одном чувстве. 
  На самом деле, хочется оставить здесь вас наедине с собой, если вы не возражаете. Для вдохновения, я вам только рекомендую музыку моего времени, собранную в одной записи. Прошу, гуляйте по саду и слушайте музыку. После мой дом и мои домоправительницы скажут все сами за себя. [audio|tolstoy_music.mp3] (введите сообщение "Спасибо, Лев Николаевич")</t>
   </si>
   <si>
-    <t>URL: http://tolstoy.ru/creativity/journalismguide/94.php  http://tolstoy.ru/creativity/journalismguide/90.php</t>
-  </si>
-  <si>
-    <t>А теперь направляйтесь на Смоленский бульвар, д. 19
-Как окажетесь на месте, напишите нам "я здесь"</t>
-  </si>
-  <si>
-    <t>Вы стоите у места, в котором когда-то был примечательный для истории русского искусства дом. Знаменитый музыкально-литературный салон Владимира Одоевского: русского мыслителя эпохи романтизма, одного из основоположников русского музыкознания, филантропа и просто красавца. В этом доме беседовали о литературе и музыке такие гиганты мысли, как Лев Толстой, Иван Тургенев, Владимир Даль.</t>
-  </si>
-  <si>
-    <t>Отношение графа к литературе и писателям своего времени категорично, и это оправдано профессией. Интересно, что касается других видов искусств, суждения Толстого также отличались своей непоколебимостью и при этом часто противоречили друг другу.</t>
+    <t>Например, музыка. С одной стороны, он осуждал непрактичность и дальность от народа данного вида искусства: "Современная музыка— это все равно, что шалая лошадь, которая носится по задворкам, задает козла, валит изгороди... Я ценил бы музыку, если бы она служила людям, помогала им в тяжелом труде. Вот, если бы, например, оркестр играл в поле во время летних полевых работ. Я вспоминаю, как целесообразна музыка, когда в походе играет оркестр. Здесь назначение музыки оправдывается той пользою, которую она приносит. Когда заиграет военный оркестр, у солдат пропадает усталость, они с новой бодростью продолжают поход. Воздействие песни и музыки на утомленных людей я не могу отрицать".</t>
+  </si>
+  <si>
+    <t>С другой стороны, Толстой говорил, что музыка очень трогает его, до слез, сердце сжимает. «Другие искусства: поэзия, скульптура, живопись не так». Сергей Львович, сын писателя, композитор и музыковед, вспоминает: «Во время игры отец обычно садился в старинное, низкое, широкое дедовское кресло, стоявшее в хвосте рояля… Если исполняемое или исполнитель ему нравились, музыка его очень захватывала. Он иногда не мог удержаться и во время исполнения сильно кряхтел, а то даже и вскрикивал». Великий был человек, Лев Николаевич!</t>
   </si>
   <si>
     <t>На этом наш квест подошел к концу. На память о себе хочу показать вам несколько карточек, которые молодежь нынче называет “стикерами”. Карточки были выполнены неизвестными мне карикатуристами, которые собрал воедино мой биограф Юрий Битовт в 1908 году, а жизнь им придали мои помощники - создатели нашей велопрогулки. Впрочем, не буду вас томить. https://t.me/addstickers/Leosuperrare (введите сообщение в строку ввода "У вас есть чувство юмора, Лев Николаевич!")</t>
-  </si>
-  <si>
-    <t>Ваш ответ неверен! Подумайте ещё раз, откуда можно узнать, сколько в Мокве бедных, и введите одно слово</t>
-  </si>
-  <si>
-    <t>перепись|переписью|перепись населения|переписью населения</t>
   </si>
   <si>
     <t>Мне хотелось бы на прощание напоследок поучить вас, с вашего позволения. Рассказать, как, по моему пониманию, надо жить людям для того, чтобы жизнь наша не была злом и горем, какою она теперь кажется большинству людей. А то мы жалуемся на жизнь, что жизнь наша плохо устроена, а не думаем того, что не жизнь наша плохо устроена, а что мы делаем не то, что нужно. А это все равно, как если бы пьяница стал жаловаться на то, что спился он оттого, что много завелось трактиров и кабаков, тогда как завелось много трактиров и кабаков только оттого, что много развелось таких же, как он, пьяниц. 
  Жизнь дана людям на благо, только бы они пользовались ею, как должно ею пользоваться. Только бы жили люди не ненавистью друг к другу, а любовью, и жизнь была бы неперестающим благом для всех. (Вводите сообщение в строку ввода "Вы как всегда правы, Лев Николаевич! Спасибо вам и Софье Андреевне, за тепло, зарядку для ума и тела, гостеприимство")</t>
   </si>
   <si>
-    <t>Например, музыка. С одной стороны, он осуждал непрактичность и дальность от народа данного вида искусства: "Современная музыка— это все равно, что шалая лошадь, которая носится по задворкам, задает козла, валит изгороди... Я ценил бы музыку, если бы она служила людям, помогала им в тяжелом труде. Вот, если бы, например, оркестр играл в поле во время летних полевых работ. Я вспоминаю, как целесообразна музыка, когда в походе играет оркестр. Здесь назначение музыки оправдывается той пользою, которую она приносит. Когда заиграет военный оркестр, у солдат пропадает усталость, они с новой бодростью продолжают поход. Воздействие песни и музыки на утомленных людей я не могу отрицать".</t>
-  </si>
-  <si>
     <t>Благодарю и вас за приключение, мой друг! Сейчас и на будущее, с добром жалуйте в мой дом.</t>
   </si>
   <si>
-    <t>С другой стороны, Толстой говорил, что музыка очень трогает его, до слез, сердце сжимает. «Другие искусства: поэзия, скульптура, живопись не так». Сергей Львович, сын писателя, композитор и музыковед, вспоминает: «Во время игры отец обычно садился в старинное, низкое, широкое дедовское кресло, стоявшее в хвосте рояля… Если исполняемое или исполнитель ему нравились, музыка его очень захватывала. Он иногда не мог удержаться и во время исполнения сильно кряхтел, а то даже и вскрикивал». Великий был человек, Лев Николаевич!</t>
-  </si>
-  <si>
     <t xml:space="preserve">Если говорить не о чувственном, но о рациональном восприятии разных видов искусства писателем, в 1898 он написал эссе “Что такое искусство?”, в котором изложил свои представления о том, каким оно должно быть (спойлер: народным, рациональным, классическим). Узнать, за что Толстой не любил Шекспира, Бетховена и Вагнера и многих других, а также достоверно понять и прочувствовать согласны вы с Толстым или нет, можно, прочитав статью. </t>
+  </si>
+  <si>
+    <t>С одной стороны, он осуждал непрактичность и дальность от народа данного вида искусства: "Современная музыка— это все равно, что шалая лошадь, которая носится по задворкам, задает козла, валит изгороди... Я ценил бы музыку, если бы она служила людям, помогала им в тяжелом труде. Вот, если бы, например, оркестр играл в поле во время летних полевых работ. Я вспоминаю, как целесообразна музыка, когда в походе играет оркестр. Здесь назначение музыки оправдывается той пользою, которую она приносит. Когда заиграет военный оркестр, у солдат пропадает усталость, они с новой бодростью продолжают поход. Воздействие песни и музыки на утомленных людей я не могу отрицать".</t>
   </si>
   <si>
     <t>URL: http://tolstoy.ru/creativity/publicism/990/</t>
@@ -544,11 +547,19 @@
 "Сеанс не удался; мы сели, как оно полагается, за круглый стол, в темной комнате, медиум задремал, и тут начались стуки в стол и появились было фосфорические огоньки, но очень скоро всякие явления прекратились; Самарин, ловя в темноте огоньки, столкнулся с чьей-то рукой, а вскоре медиум проснулся, и дело этим и ограничилось. Львов, очень интересовавшийся спиритизмом, допускал реальность спиритических явлений и показывал нам фотографии, снятые с явившейся во время сеанса фигуры и отпечаток в гипсе или воске кисти руки такой фигуры" - вспоминал Давыдов.</t>
   </si>
   <si>
+    <t>Подсказка: фамилия композитора начинается на Ш.</t>
+  </si>
+  <si>
+    <t>шопен</t>
+  </si>
+  <si>
     <t>По его словам, Толстой тоже был настроен скептически, отметив, что спиритизм – это либо самообман, либо обман профессионалами, называя явление столь же абсурдным, как и тот факт, если бы его собственная трость начала вдруг давать молоко.
 Теперь пришло время выполнить самое мистическое задание нашего квеста. Вводите "абра-кадабра!".</t>
   </si>
   <si>
-    <t>С одной стороны, он осуждал непрактичность и дальность от народа данного вида искусства: "Современная музыка— это все равно, что шалая лошадь, которая носится по задворкам, задает козла, валит изгороди... Я ценил бы музыку, если бы она служила людям, помогала им в тяжелом труде. Вот, если бы, например, оркестр играл в поле во время летних полевых работ. Я вспоминаю, как целесообразна музыка, когда в походе играет оркестр. Здесь назначение музыки оправдывается той пользою, которую она приносит. Когда заиграет военный оркестр, у солдат пропадает усталость, они с новой бодростью продолжают поход. Воздействие песни и музыки на утомленных людей я не могу отрицать".</t>
+    <t>Молодец!
+Теперь идите вдоль бульвара до дома под номером 11 к. 2.
+Напишите в строку ввода "далее", когда подойдете на место.</t>
   </si>
   <si>
     <t>Примените свои сверхспособности и напишите, как называлось произведение, на которое вдохновил Толстого неудачный поход к медиуму? Предупреждаем, тут Юма-столовращатель и братья Петти вам не помогут! Лев Николаевич разгадал бы эту загадку в 2 счета, ведь именно любовь к шифрам в свое время свела его с Софьей Андреевной, которая точно уловила код его сердца. А теперь и тебе предстоит воспользоваться посланием Льва Николаевича, чтобы разгадать, о каком мистическом произведении идет речь.
@@ -556,57 +567,15 @@
 4(19)оды 4ро51еще83я</t>
   </si>
   <si>
-    <t>Правильный ответ - комедия в 4 действиях «Плоды просвещения». Здесь отображены два участника реального сеанса - Львов и Самарин. Львов появился на страницах под фамилией Звездинцев. Самарин сначала значился под подлинной фамилией, но позднее стал Сахатовым Сергеем Ивановичем.</t>
-  </si>
-  <si>
-    <t>Время отправиться в самое сердце старой Москвы.
-Ждем вас на ул. Арбат, д. 36. По прибытии напишите "Дождались"</t>
-  </si>
-  <si>
-    <t>Если вы пройдете далее в сторону Старого Арбата, то найдете много красивых зданий, в том числе сохранившееся здание бывшего издательства “Посредник”, существовавшего под руководством Владимира Григорьевича Черткова. Это друг, редактор и издатель произведений Толстого, который был рядом с писателем всегда и после смерти последнего. Они нашли друг в друге единомышленников в статусе ученик/учитель и навсегда изменили судьбу друг друга, посвятив друг другу 30 лет вплоть до смерти Л.Н. Помимо творческого, духовного влияния и поддержки Толстого (местами аддиктивного), Чертков смог собрать воедино огромное собрание сочинений Льва Николаевича.</t>
-  </si>
-  <si>
-    <t>Больше об их дружбе можно прочитать в воспоминаниях последнего секретаря Толстого и организатора музеев, Булгакова Ф.В.. Он был прямым свидетелем этих отношений, из-за которых, по одной из версий, разрушилась семейная жизнь Льва Николаевича.</t>
-  </si>
-  <si>
-    <t>Подсказка: фамилия композитора начинается на Ш.</t>
-  </si>
-  <si>
-    <t>шопен</t>
-  </si>
-  <si>
-    <t>URL: http://tolstoy-lit.ru/tolstoy/vospominaniya/bulgakov-kak-prozhita-zhizn/2-glava-8-chertkov.htm</t>
-  </si>
-  <si>
-    <t>Чертков был очень плодотворным издателем, но не заработал на этом ни рубля, так как права на свои книги Толстой почти полностью обнародовал. «В. Г. Черткову издавать сочинения Льва Толстого на прежних основаниях, то есть не преследуя никаких материальных личных целей» - цитата из завещания Л.Н.. Идея о передаче прав народу принадлежала самому Льву Николаевичу и возникла она в период “расцвета” толстовства. Толстовство - это философское учение Льва Николаевича, “религия”, постулатам которой следуют приверженцы до сих пор. Подробнее о толстовстве можете прочитать по ссылке сейчас или дома:</t>
-  </si>
-  <si>
-    <t>URL: http://telegra.ph/Tolstovstvo-11-09</t>
-  </si>
-  <si>
-    <t>Молодец!
-Теперь идите вдоль бульвара до дома под номером 11 к. 2.
-Напишите в строку ввода "далее", когда подойдете на место.</t>
-  </si>
-  <si>
-    <t>А вы знаете кто из известных личностей поддерживал идеи Толстого?
-Попробуйте догадаться. Мы вам поможем и дадим четыре варианта: 1. Владимир Ленин; 2. Дэниэл Киз; 3. Махатма Ганди; 4. Лев Троцкий</t>
-  </si>
-  <si>
-    <t>Верно. У них с Ганди даже была переписка: можете ознакомиться с информацией о ней по ссылке http://tolstoy.ru/creativity/journalismguide/342.php 
-Теперь ждем вас у Большого Афанасьевского переулка, д. 24. Когда будете на месте, так и напишите "я на месте"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вы стоите перед домом уважаемой семьи Берсов. Сейчас в доме располагается Международный нумизматический клуб, а в 19 веке Толстой здесь сделал предложение своей будущей жене Софье Берс, с которой он проведет всю жизнь (кстати, этот дом - прототип дома  Ростовых, а частичный прототип Наташи - Софья).
-</t>
-  </si>
-  <si>
     <t>Но вернемся к сеансу в доме у Львова. 
 "Сеанс не удался; мы сели, как оно полагается, за круглый стол, в темной комнате, медиум задремал, и тут начались стуки в стол и появились было фосфорические огоньки, но очень скоро всякие явления прекратились; Самарин, ловя в темноте огоньки, столкнулся с чьей-то рукой, а вскоре медиум проснулся, и дело этим и ограничилось. Львов, очень интересовавшийся спиритизмом, допускал реальность спиритических явлений и показывал нам фотографии, снятые с явившейся во время сеанса фигуры и отпечаток в гипсе или воске кисти руки такой фигуры" - вспоминал Давыдов.</t>
   </si>
   <si>
     <t>По его словам, Толстой тоже был настроен скептически, отметив, что спиритизм – это либо самообман, либо обман профессионалами, называя явление столь же абсурдным, как и тот факт, если бы его собственная трость начала вдруг давать молоко.
 Перейдем к заданию. Вводите "далее".</t>
+  </si>
+  <si>
+    <t>Правильный ответ - комедия в 4 действиях «Плоды просвещения». Здесь отображены два участника реального сеанса - Львов и Самарин. Львов появился на страницах под фамилией Звездинцев. Самарин сначала значился под подлинной фамилией, но позднее стал Сахатовым Сергеем Ивановичем.</t>
   </si>
   <si>
     <t>Примените свои сверхспособности и напишите, как называлось произведение, на которое вдохновил Толстого неудачный поход к медиуму? Кстати, Лев Николаевич разгадал бы эту загадку в 2 счета, ведь именно любовь к шифрам в свое время свела его с Софьей Андреевной, которая точно уловила код его сердца. А теперь и тебе предстоит воспользоваться посланием Льва Николаевича, чтобы разгадать, о каком мистическом произведении идет речь.
@@ -614,12 +583,52 @@
 4(19)оды 4ро51еще83я</t>
   </si>
   <si>
+    <t>Время отправиться в самое сердце старой Москвы.
+Ждем вас на ул. Арбат, д. 36. По прибытии напишите "Дождались"</t>
+  </si>
+  <si>
     <t>Неверно! 
 Попробуйте понять, какие буквы во фразе 
 "4(19)оды 4ро51еще83я" заменили числами, и введите восстановленную фразу.</t>
   </si>
   <si>
     <t>плоды просвещения</t>
+  </si>
+  <si>
+    <t>Если вы пройдете далее в сторону Старого Арбата, то найдете много красивых зданий, в том числе сохранившееся здание бывшего издательства “Посредник”, существовавшего под руководством Владимира Григорьевича Черткова. Это друг, редактор и издатель произведений Толстого, который был рядом с писателем всегда и после смерти последнего. Они нашли друг в друге единомышленников в статусе ученик/учитель и навсегда изменили судьбу друг друга, посвятив друг другу 30 лет вплоть до смерти Л.Н. Помимо творческого, духовного влияния и поддержки Толстого (местами аддиктивного), Чертков смог собрать воедино огромное собрание сочинений Льва Николаевича.</t>
+  </si>
+  <si>
+    <t>Больше об их дружбе можно прочитать в воспоминаниях последнего секретаря Толстого и организатора музеев, Булгакова Ф.В.. Он был прямым свидетелем этих отношений, из-за которых, по одной из версий, разрушилась семейная жизнь Льва Николаевича.</t>
+  </si>
+  <si>
+    <t>URL: http://tolstoy-lit.ru/tolstoy/vospominaniya/bulgakov-kak-prozhita-zhizn/2-glava-8-chertkov.htm</t>
+  </si>
+  <si>
+    <t>Чертков был очень плодотворным издателем, но не заработал на этом ни рубля, так как права на свои книги Толстой почти полностью обнародовал. «В. Г. Черткову издавать сочинения Льва Толстого на прежних основаниях, то есть не преследуя никаких материальных личных целей» - цитата из завещания Л.Н.. Идея о передаче прав народу принадлежала самому Льву Николаевичу и возникла она в период “расцвета” толстовства. Толстовство - это философское учение Льва Николаевича, “религия”, постулатам которой следуют приверженцы до сих пор. Подробнее о толстовстве можете прочитать по ссылке сейчас или дома:</t>
+  </si>
+  <si>
+    <t>URL: http://telegra.ph/Tolstovstvo-11-09</t>
+  </si>
+  <si>
+    <t>А вы знаете кто из известных личностей поддерживал идеи Толстого?
+Попробуйте догадаться. Мы вам поможем и дадим четыре варианта: 1. Владимир Ленин; 2. Дэниэл Киз; 3. Махатма Ганди; 4. Лев Троцкий</t>
+  </si>
+  <si>
+    <t>Неверно! Введите цифру от 1 до 4, соответствующую той личности, которая поддерживала идеи Льва Толстого</t>
+  </si>
+  <si>
+    <t>3|Ганди|Махатма|Махатма Ганди</t>
+  </si>
+  <si>
+    <t>Верно. У них с Ганди даже была переписка: можете ознакомиться с информацией о ней по ссылке http://tolstoy.ru/creativity/journalismguide/342.php Теперь ждем вас у Большого Афанасьевского переулка, д. 24. Когда будете на месте, так и напишите "я на месте"</t>
+  </si>
+  <si>
+    <t>Верно. У них с Ганди даже была переписка: можете ознакомиться с информацией о ней по ссылке http://tolstoy.ru/creativity/journalismguide/342.php 
+Теперь ждем вас у Большого Афанасьевского переулка, д. 24. Когда будете на месте, так и напишите "я на месте"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы стоите перед домом уважаемой семьи Берсов. Сейчас в доме располагается Международный нумизматический клуб, а в 19 веке Толстой здесь сделал предложение своей будущей жене Софье Берс, с которой он проведет всю жизнь (кстати, этот дом - прототип дома  Ростовых, а частичный прототип Наташи - Софья).
+</t>
   </si>
   <si>
     <t>Она была его верной спутницей, переводчиком, секретарем, издателем произведений. Она отказалась от светских балов знатной леди и переехала в Ясную Поляну вести хозяйство, воспитывать детей и трудиться во славу мужа, переписывая “набело” его дневники и т.д.. Прожила пара вместе 48 лет, у них родилось 13 детей. Они прошли вместе все - триумф в писательской деятельности, отречение от Церкви,смерть любимых детей.</t>
@@ -640,13 +649,26 @@
 </t>
   </si>
   <si>
+    <t>3|Толстой|Сам Толстой|Сам Толстой в завещании|Он сам</t>
+  </si>
+  <si>
     <t xml:space="preserve">Знали ли вы достоверно, или угадали, в любом случае это правда.
 Действительно, Толстой завещал все свои произведения народу, а земли крестьянам. Софья выполнила желание покойного и обратилась за материальной помощью к царю. В итоге она получала приличную пенсию от Николая II, тем самым спасла семью из сложного положения.
 Теперь ждем вас переулке Сивцев Вражек, д. 36. Напишите в строке сообщения "что же дальше?", как прибудете на место. </t>
   </si>
   <si>
+    <t xml:space="preserve">Знали ли вы достоверно, или угадали, в любом случае это правда.
+Действительно, Толстой завещал все свои произведения народу, а земли крестьянам. Софья выполнила желание покойного и обратилась за материальной помощью к царю. В итоге она получала приличную пенсию от Николая II, тем самым спасла семью из сложного положения.
+Теперь ждем вас переулке Сивцев Вражек, д. 36. Напишите в строке сообщения "что же дальше?", как прибудете на место. </t>
+  </si>
+  <si>
     <t xml:space="preserve">
 Добро пожаловать! В доме Лев Николаевич провел несколько молодых лет в поиске себя, проживая жизнь молодого графа того времени: в игорных домах, гуляниях и светском обществе.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Добро пожаловать к дому Льва Николаевича! Здесь провел несколько молодых лет в поиске себя, проживая жизнь молодого графа того времени: в игорных домах, гуляниях и светском обществе.
 </t>
   </si>
   <si>
@@ -657,16 +679,7 @@
 </t>
   </si>
   <si>
-    <t>Неверно! Введите цифру от 1 до 4, соответствующую той личности, которая поддерживала идеи Льва Толстого</t>
-  </si>
-  <si>
-    <t>3|Ганди|Махатма|Махатма Ганди</t>
-  </si>
-  <si>
     <t>И в голове он держит четвертую цель: начать писать запланированную “Повесть из цыганского быта”. Почти каждый день Лев Николаевич садится за стол в своем кабинете и заставляет себя приняться-таки, наконец, за сочинение. 11 декабря он отмечает в дневнике: «…писать конспект повести», затем, практически ежедневно, повторяет одно и то же – «заняться сочинением повести», «заняться писанием», «писать повесть», «писать и писать».</t>
-  </si>
-  <si>
-    <t>Верно. У них с Ганди даже была переписка: можете ознакомиться с информацией о ней по ссылке http://tolstoy.ru/creativity/journalismguide/342.php Теперь ждем вас у Большого Афанасьевского переулка, д. 24. Когда будете на месте, так и напишите "я на месте"</t>
   </si>
   <si>
     <t xml:space="preserve">И справился. Написал. Больше об этом периоде жизни (и не только) вы можете узнать в книге Александра Васькина «Московские адреса Льва Толстого». 
@@ -677,33 +690,29 @@
     <t>“На этом бильярде писатель в 1862 г. проиграл проезжему офицеру тысячу рублей и пережил неприятную минуту: денег, чтобы расплатиться у него не было, что грозило попаданием на «черную доску». На доску записывали исключенных за неуплаченные долги членов клуба, которым вход воспрещался впредь до уплаты долгов. Чем бы все это закончилось для Толстого – неизвестно, если бы в это время в клубе не находился М.Н. Катков, редактор «Русского вестника» и «Московских ведомостей», который, узнав, в чем дело, выручил Льва Николаевича, дав ему взаймы тысячу рублей. Но не безвозмездно – в следующей книге «Русского вестника» была напечатана повесть «Казаки»”</t>
   </si>
   <si>
+    <t>Неверно! Подсказка: клуб называется в честь одной из европейских наций.</t>
+  </si>
+  <si>
+    <t>английский клуб|об английском клубе</t>
+  </si>
+  <si>
     <t>Что ж, речь идет об Английском клубе, любимом месте знатных мужчин того времени. Сейчас в этом здании расположился Музей современной истории России.
 Едем дальше, до Храма Христа Спасителя. Ждем от вас сообщение со словами "самодержавие, православие, народность", когда окажетесь у главного храма страны.</t>
   </si>
   <si>
+    <t>Что ж, речь идет об Английском клубе, любимом месте знатных мужчин того времени. Сейчас в этом здании расположился Музей современной истории России. Едем дальше, до Храма Христа Спасителя. Ждем от вас сообщение со словами "самодержавие, православие, народность", когда окажетесь у главного храма страны.</t>
+  </si>
+  <si>
     <t>Лев Николаевич впервые столкнулся с властью и ее репрезентацией еще в юном возрасте. Это произошло в 1839 году, когда все младшие члены семьи вместе с тетушкой Татьяной Ергольской приехали на время из Ясной Поляны в Москву, чтобы стать свидетелями знаменательного события – закладки Храма Христа Спасителя на Волхонке.</t>
   </si>
   <si>
     <t>10 сентября 1839 года Лев наблюдал за торжественной церемонией из окна дома Милютиных, московских знакомых Толстых. Дом этот стоял недалеко от храма и не сохранился до наших дней. Из этого окна Левушка и увидел царя Николая I, который принимал парад гвардейского Преображенского полка, специально прибывшего из Петербурга.</t>
   </si>
   <si>
-    <t>3|Толстой|Сам Толстой|Сам Толстой в завещании|Он сам</t>
-  </si>
-  <si>
     <t>По прошествию многих лет Лев Николаевич так и не поделился с читателями тем, что он почувствовал, увидев Николая I. Впрочем, для нас, читателей, это не важно. Важнее - то, как и когда было сформировано отношение писателя к власти и государственной машине и почему Ленин назвал в дальнейшем писателя Толстого зеркалом русской революции.</t>
   </si>
   <si>
-    <t xml:space="preserve">Знали ли вы достоверно, или угадали, в любом случае это правда.
-Действительно, Толстой завещал все свои произведения народу, а земли крестьянам. Софья выполнила желание покойного и обратилась за материальной помощью к царю. В итоге она получала приличную пенсию от Николая II, тем самым спасла семью из сложного положения.
-Теперь ждем вас переулке Сивцев Вражек, д. 36. Напишите в строке сообщения "что же дальше?", как прибудете на место. </t>
-  </si>
-  <si>
     <t>Об отношении Толстого к анархизму, самодержавию и церкви, как государственной структуре, можно прочитать по ссылке:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Добро пожаловать к дому Льва Николаевича! Здесь провел несколько молодых лет в поиске себя, проживая жизнь молодого графа того времени: в игорных домах, гуляниях и светском обществе.
-</t>
   </si>
   <si>
     <t>URL: http://telegra.ph/Tolstoj-i-vlast-11-08</t>
@@ -722,28 +731,6 @@
 Впрочем, наша история посвящена не Бакунину. Отправяйтесь на ул. Пречистенка, д. 32. По дороге вам встретится один из музеев Льва Николаевича - он находится в доме под номером 11 к. 8. Музей известен и интересен своим фондом личных вещей графа и его семьи! Заходите, вы не пожалеете. Только не сворачивайте с нашего маршрута и напишите "учиться, учиться и еще раз учиться", как доберетесь до назначенного места.</t>
   </si>
   <si>
-    <t>Сейчас вы находитесь перед зданием детской художественной школы Валентина Серова. История школы берет свое начало с 1934 года – это была первая изобразительная школа для детей в СССР. Однако мало кто знает, что здание на Пречистенке еще с конца XIX века было известнейшим храмом просвещения, где учились сыновья Льва Николаевича Толстого.</t>
-  </si>
-  <si>
-    <t>Неверно! Подсказка: клуб называется в честь одной из европейских наций.</t>
-  </si>
-  <si>
-    <t>английский клуб|об английском клубе</t>
-  </si>
-  <si>
-    <t>Что ж, речь идет об Английском клубе, любимом месте знатных мужчин того времени. Сейчас в этом здании расположился Музей современной истории России. Едем дальше, до Храма Христа Спасителя. Ждем от вас сообщение со словами "самодержавие, православие, народность", когда окажетесь у главного храма страны.</t>
-  </si>
-  <si>
-    <t>В прошлом гимназия носила имя своего создателя и директора – Льва Ивановича Поливанова, известного своими исследованиями о русской словесности. Это было частное мужское (заметим, что до распада Российской империи почти все образование было раздельным) образовательное учреждение, по выходу из которой юноши получали фундаментальное гуманитарное образование.</t>
-  </si>
-  <si>
-    <t>Именно к Поливанову Л.Н. отдал обучаться четырех своих сыновей: Илью, Льва, Андрея и Михаила. Несмотря на педагогическое доверие, каждый поход писателя в школу сыновей сопровождался жаркими спорами с Поливановым о русской словесности. Одну из их дискуссий в 1881 г записала жена Поливанова.
-Для особо любознательных мы оставляем ссылку на стенограмму здесь:</t>
-  </si>
-  <si>
-    <t>URL: http://telegra.ph/Kak-Tolstoj-sporil-s-Polivanovym-Iz-stenogrammy-Marii-Polivanovoj-11-06</t>
-  </si>
-  <si>
     <t xml:space="preserve">Проверим ваши знания в области политических течений.
 Кто такие анархисты?
 1)поклонники сатаны
@@ -756,8 +743,21 @@
     <t>4|последователи движения</t>
   </si>
   <si>
+    <t>Сейчас вы находитесь перед зданием детской художественной школы Валентина Серова. История школы берет свое начало с 1934 года – это была первая изобразительная школа для детей в СССР. Однако мало кто знает, что здание на Пречистенке еще с конца XIX века было известнейшим храмом просвещения, где учились сыновья Льва Николаевича Толстого.</t>
+  </si>
+  <si>
     <t>Простите за нашу шутку. Кстати, главным идеологом дореволюционной России считается Михаил Бакунин, участвовавший во многих европейских восстаниях в середине XIX века.
 Впрочем, наша история посвящена не Бакунину. Отправяйтесь на ул. Пречистенка, д. 32. По дороге вам встретится один из музеев Льва Николаевича - он находится в доме под номером 11 к. 8. Музей известен и интересен своим фондом личных вещей графа и его семьи! Заходите, вы не пожалеете. Только не сворачивайте с нашего маршрута и напишите "учиться, учиться и еще раз учиться", как доберетесь до Пречистинки 32.</t>
+  </si>
+  <si>
+    <t>В прошлом гимназия носила имя своего создателя и директора – Льва Ивановича Поливанова, известного своими исследованиями о русской словесности. Это было частное мужское (заметим, что до распада Российской империи почти все образование было раздельным) образовательное учреждение, по выходу из которой юноши получали фундаментальное гуманитарное образование.</t>
+  </si>
+  <si>
+    <t>Именно к Поливанову Л.Н. отдал обучаться четырех своих сыновей: Илью, Льва, Андрея и Михаила. Несмотря на педагогическое доверие, каждый поход писателя в школу сыновей сопровождался жаркими спорами с Поливановым о русской словесности. Одну из их дискуссий в 1881 г записала жена Поливанова.
+Для особо любознательных мы оставляем ссылку на стенограмму здесь:</t>
+  </si>
+  <si>
+    <t>URL: http://telegra.ph/Kak-Tolstoj-sporil-s-Polivanovym-Iz-stenogrammy-Marii-Polivanovoj-11-06</t>
   </si>
   <si>
     <t xml:space="preserve">Из их разговора становится ясно, что оппоненты Толстого считают его «вдохновенным педагогом-практиком» и «бессильным педагогом-теоретиком», приводя в пример неточности из его сочинения «О народном образовании». Кроме того известно, что Поливанов критически относился к Яснополянской школе, которую писатель открыл в 1859 году: писателю было немногим более 20 лет, когда он начал учить крестьянских детей в своем имении.
@@ -773,6 +773,12 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Неверно! Подсказка: ответ уже указан справа от знака равенства, осталось только перевести его в арабский вид. </t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
     <t>Правильно ответ - 139. Неужели вы учились по "Азбуке" Льва Николаевича?
 Пришло время отправиться на последнюю, однако одну из самых важных локаций в жизни Толстого. Адрес: ул. Льва Толстого, д. 21. Как прибудете на место, напишите в строке сообщения "милый дом".</t>
   </si>
@@ -780,24 +786,18 @@
     <t>Добро пожаловать в дом, в котором Лев Николаевич жил более 10 лет! Ставьте велосипед на паркову, покупайте входной билет и напишите сюда “поехали”.</t>
   </si>
   <si>
-    <t xml:space="preserve">Неверно! Подсказка: ответ уже указан справа от знака равенства, осталось только перевести его в арабский вид. </t>
-  </si>
-  <si>
-    <t>139</t>
+    <t>Добро пожаловать в дом, в котором Лев Николаевич жил более 10 лет! Ставьте велосипед на парковку, покупайте входной билет и напишите сюда “поехали”.</t>
+  </si>
+  <si>
+    <t>Дом Льва Николаевича в Хамовниках в свое время являлся своеобразным культурно-просветительным центром. Сюда стекалось бесконечное количество людей: знакомых и незнакомых, москвичей и приезжих из разных уголков России и из-за границы, принадлежащих к самым разнообразным слоям общества.
+Подробнее о гостях Толстовых можно узнать в нашей статье:</t>
   </si>
   <si>
     <t>Дом Льва Николаевича в Хамовниках в свое время являлся своеобразным культурно-просветительным центром. Сюда стекалосьбесконечное количество людей: знакомых и незнакомых, москвичей и приезжих из разных уголков России и из-за границы, принадлежащих к самым разнообразным слоям общества.
 Подробнее о гостях Толстовых можно узнать в нашей статье:</t>
   </si>
   <si>
-    <t>Добро пожаловать в дом, в котором Лев Николаевич жил более 10 лет! Ставьте велосипед на парковку, покупайте входной билет и напишите сюда “поехали”.</t>
-  </si>
-  <si>
     <t>URL: http://telegra.ph/Vse-chto-proishodit-v-Hamovnikah-ostaetsya-v-Hamovnikah-11-06</t>
-  </si>
-  <si>
-    <t>Дом Льва Николаевича в Хамовниках в свое время являлся своеобразным культурно-просветительным центром. Сюда стекалось бесконечное количество людей: знакомых и незнакомых, москвичей и приезжих из разных уголков России и из-за границы, принадлежащих к самым разнообразным слоям общества.
-Подробнее о гостях Толстовых можно узнать в нашей статье:</t>
   </si>
   <si>
     <t>За одним столом могли сидеть анархист и жаждущий поймать его полицай: без масок, просто дом Толстого был домом мира. Он был всегда переполнен посетителями, желающими видеть Льва Николаевича и говорить с ним. Проводились здесь светские вечера: к примеру, на один из вечеров было обговорено гостям надеть костюм “писателей того времени” и один из друзей сделал очень похожий костюм Л. Н. Толстого.
@@ -882,16 +882,19 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color rgb="FF222222"/>
+      <name val="&quot;Arial&quot;"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FF222222"/>
-      <name val="&quot;Arial&quot;"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <b/>
     </font>
     <font>
       <sz val="8.0"/>
@@ -905,10 +908,15 @@
       <name val="&quot;Arial&quot;"/>
     </font>
     <font>
-      <b/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -916,17 +924,9 @@
       <name val="'Times New Roman'"/>
     </font>
     <font>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="12.0"/>
       <color rgb="FF444444"/>
       <name val="Georgia"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -1003,17 +1003,23 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -1021,53 +1027,47 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -1078,32 +1078,32 @@
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -1158,7 +1158,7 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4">
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -1166,632 +1166,632 @@
       </c>
     </row>
     <row r="5" ht="74.25" customHeight="1">
-      <c r="D5" s="11" t="s">
-        <v>8</v>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
-      <c r="D6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="D7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="8">
-      <c r="D8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9">
-      <c r="D9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="D10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="14" t="s">
+    <row r="12">
+      <c r="D12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11">
-      <c r="D11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="D12" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="14" t="s">
+    <row r="13">
+      <c r="D13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13">
-      <c r="D13" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="14" t="s">
+    <row r="14">
+      <c r="D14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14">
-      <c r="D14" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="14" t="s">
+    <row r="16">
+      <c r="D16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15">
-      <c r="D15" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="D16" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="14" t="s">
+    <row r="17">
+      <c r="D17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17">
-      <c r="D17" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="18">
-      <c r="D18" s="14" t="s">
-        <v>28</v>
+      <c r="D18" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19">
-      <c r="D19" s="16" t="s">
-        <v>14</v>
+      <c r="D19" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
-      <c r="D20" s="16" t="s">
-        <v>14</v>
+      <c r="D20" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
-      <c r="D21" s="14" t="s">
-        <v>28</v>
+      <c r="D21" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22">
-      <c r="D22" s="14" t="s">
-        <v>28</v>
+      <c r="D22" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
-      <c r="D23" s="14" t="s">
-        <v>28</v>
+      <c r="D23" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="E23" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24">
-      <c r="D24" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="14" t="s">
+    <row r="25">
+      <c r="D25" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25">
-      <c r="D25" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="14" t="s">
+    <row r="26">
+      <c r="D26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26">
-      <c r="D26" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
     <row r="27">
-      <c r="D27" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="26" t="s">
+      <c r="D27" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="25" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="28">
-      <c r="D28" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>73</v>
+      <c r="D28" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="29">
-      <c r="D29" s="14" t="s">
-        <v>28</v>
+      <c r="D29" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" s="14" t="s">
-        <v>28</v>
+      <c r="D30" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="E30" s="27" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>77</v>
+      <c r="D31" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>78</v>
+      <c r="D32" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>79</v>
+      <c r="D33" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>80</v>
+      <c r="D34" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" s="14" t="s">
-        <v>28</v>
+      <c r="D35" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>82</v>
+      <c r="D36" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>83</v>
+      <c r="D37" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>84</v>
+      <c r="D38" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="39">
-      <c r="D39" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>86</v>
+      <c r="D39" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="40">
-      <c r="D40" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>87</v>
+      <c r="D40" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="41">
-      <c r="D41" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="30" t="s">
-        <v>88</v>
+      <c r="D41" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="42">
-      <c r="D42" s="16" t="s">
-        <v>14</v>
+      <c r="D42" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43">
-      <c r="D43" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>90</v>
+      <c r="D43" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="44">
-      <c r="D44" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>93</v>
+      <c r="D44" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="45">
-      <c r="D45" s="14" t="s">
-        <v>28</v>
+      <c r="D45" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
-      <c r="D46" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="33" t="s">
-        <v>95</v>
+      <c r="D46" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="47">
-      <c r="D47" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>97</v>
+      <c r="D47" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="48">
-      <c r="D48" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>98</v>
+      <c r="D48" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="49">
-      <c r="D49" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="34" t="s">
-        <v>99</v>
+      <c r="D49" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="36" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="50">
-      <c r="D50" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" s="34" t="s">
-        <v>105</v>
+      <c r="D50" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="51">
-      <c r="D51" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="34" t="s">
-        <v>106</v>
+      <c r="D51" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="52">
-      <c r="D52" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>107</v>
+      <c r="D52" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="53">
-      <c r="D53" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>108</v>
+      <c r="D53" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="54">
-      <c r="D54" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>109</v>
+      <c r="D54" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="55">
-      <c r="D55" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>110</v>
+      <c r="D55" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="56">
-      <c r="D56" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" s="34" t="s">
-        <v>111</v>
+      <c r="D56" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="36" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="57">
-      <c r="D57" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="37" t="s">
-        <v>114</v>
+      <c r="D57" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="58">
-      <c r="D58" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>116</v>
+      <c r="D58" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="59">
-      <c r="D59" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>117</v>
+      <c r="D59" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="60">
-      <c r="D60" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>118</v>
+      <c r="D60" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="61">
-      <c r="D61" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="34" t="s">
-        <v>119</v>
+      <c r="D61" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="36" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="62">
-      <c r="D62" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>120</v>
+      <c r="D62" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="63">
-      <c r="D63" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E63" s="34" t="s">
-        <v>122</v>
+      <c r="D63" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="36" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="64">
-      <c r="D64" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E64" s="34" t="s">
-        <v>124</v>
+      <c r="D64" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="36" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="65">
-      <c r="D65" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>126</v>
+      <c r="D65" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="66">
-      <c r="D66" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>127</v>
+      <c r="D66" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="67">
-      <c r="D67" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>128</v>
+      <c r="D67" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="68">
-      <c r="D68" s="10" t="s">
-        <v>14</v>
+      <c r="D68" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="E68" s="39" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69">
-      <c r="D69" s="14" t="s">
-        <v>28</v>
+      <c r="D69" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70">
-      <c r="D70" s="14" t="s">
-        <v>28</v>
+      <c r="D70" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="E70" s="39" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71">
-      <c r="D71" s="14" t="s">
-        <v>28</v>
+      <c r="D71" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="E71" s="39" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72">
-      <c r="D72" s="14" t="s">
-        <v>28</v>
+      <c r="D72" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="E72" s="39" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="73">
-      <c r="D73" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E73" s="14" t="s">
+      <c r="D73" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="17" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="74">
-      <c r="D74" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E74" s="14" t="s">
+      <c r="D74" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" s="17" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="75">
-      <c r="D75" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" s="14" t="s">
-        <v>142</v>
+      <c r="D75" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="76">
-      <c r="D76" s="10" t="s">
-        <v>14</v>
+      <c r="D76" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="E76" s="40" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77">
-      <c r="D77" s="14" t="s">
-        <v>28</v>
+      <c r="D77" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78">
-      <c r="D78" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E78" s="14" t="s">
-        <v>148</v>
+      <c r="D78" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="79">
-      <c r="D79" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E79" s="14" t="s">
+      <c r="D79" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="17" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="80">
-      <c r="D80" s="14" t="s">
-        <v>28</v>
+      <c r="D80" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="E80" s="40" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="81">
-      <c r="D81" s="14" t="s">
-        <v>28</v>
+      <c r="D81" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="E81" s="41" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="82">
-      <c r="D82" s="14" t="s">
-        <v>28</v>
+      <c r="D82" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="E82" s="41" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="83">
-      <c r="D83" s="14" t="s">
-        <v>28</v>
+      <c r="D83" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="E83" s="41" t="s">
         <v>154</v>
@@ -4588,247 +4588,247 @@
         <v>7</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" ht="74.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>21</v>
+      <c r="B5" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>32</v>
+      <c r="A6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>30</v>
+      <c r="B7" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="14" t="s">
+      <c r="E10" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="14" t="s">
+      <c r="B12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="14" t="s">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="14" t="s">
+      <c r="B15" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>45</v>
-      </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>70</v>
+      <c r="E16" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="14" t="s">
-        <v>71</v>
+      <c r="A17" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="14" t="s">
-        <v>15</v>
+      <c r="A18" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="14" t="s">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B23" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="14" t="s">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="14" t="s">
+      <c r="B25" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="14" t="s">
+      <c r="B26" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="14" t="s">
-        <v>7</v>
-      </c>
       <c r="B27" s="27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -4837,384 +4837,384 @@
       <c r="E28" s="1"/>
     </row>
     <row r="29">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>77</v>
+      <c r="B29" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="14" t="s">
+      <c r="B30" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="32" t="s">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="14" t="s">
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="14" t="s">
+      <c r="B39" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="14" t="s">
+      <c r="B41" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B42" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="14" t="s">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B44" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="29" t="s">
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E45" s="17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="14" t="s">
+    <row r="46">
+      <c r="A46" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B38" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="14" t="s">
+      <c r="B46" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="14" t="s">
+      <c r="B48" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="14" t="s">
+      <c r="B49" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="14" t="s">
+      <c r="B50" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="14" t="s">
+      <c r="B51" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="14" t="s">
+      <c r="B54" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="14" t="s">
+      <c r="B55" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="14" t="s">
+      <c r="B56" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="14" t="s">
+      <c r="B57" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="14" t="s">
+      <c r="B60" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="14" t="s">
+      <c r="B61" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="14" t="s">
+      <c r="B62" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="14" t="s">
+      <c r="B63" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="14" t="s">
+      <c r="B64" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B58" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="14" t="s">
+      <c r="B67" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="14" t="s">
+      <c r="B68" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B65" s="14" t="s">
+      <c r="B69" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="39" t="s">
-        <v>135</v>
-      </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B70" s="39" t="s">
@@ -5223,73 +5223,73 @@
       <c r="E70" s="1"/>
     </row>
     <row r="71">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="17" t="s">
         <v>140</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="17" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>142</v>
-      </c>
       <c r="E73" s="1"/>
     </row>
     <row r="74">
-      <c r="A74" s="14" t="s">
-        <v>15</v>
+      <c r="A74" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="B74" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="E74" s="1"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="14" t="s">
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="28" t="s">
+      <c r="B76" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="E75" s="1"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="14" t="s">
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B76" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="17" t="s">
         <v>150</v>
       </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78">
-      <c r="A78" s="14" t="s">
-        <v>15</v>
+      <c r="A78" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="B78" s="40" t="s">
         <v>151</v>
@@ -5297,7 +5297,7 @@
       <c r="E78" s="1"/>
     </row>
     <row r="79">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B79" s="40" t="s">
@@ -5306,7 +5306,7 @@
       <c r="E79" s="1"/>
     </row>
     <row r="80">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B80" s="41" t="s">
@@ -5315,7 +5315,7 @@
       <c r="E80" s="1"/>
     </row>
     <row r="81">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B81" s="40" t="s">
@@ -5324,7 +5324,7 @@
       <c r="E81" s="1"/>
     </row>
     <row r="82">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B82" s="42" t="s">
@@ -5333,32 +5333,32 @@
       <c r="E82" s="1"/>
     </row>
     <row r="83">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="17" t="s">
         <v>157</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84">
-      <c r="A84" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B84" s="14" t="s">
+      <c r="A84" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" s="17" t="s">
         <v>158</v>
       </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D85" s="10" t="s">
-        <v>11</v>
+      <c r="D85" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="E85" s="1"/>
     </row>
@@ -9949,222 +9949,222 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>13</v>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>16</v>
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>20</v>
+      <c r="B7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>22</v>
+      <c r="B8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>24</v>
+      <c r="B9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>26</v>
+      <c r="B10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>29</v>
+      <c r="B11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>34</v>
+      <c r="B12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>37</v>
+      <c r="B13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>39</v>
+      <c r="B14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="19"/>
-      <c r="C15" s="9" t="s">
-        <v>47</v>
+      <c r="B15" s="21"/>
+      <c r="C15" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>49</v>
+      <c r="B16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>50</v>
+      <c r="B17" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>51</v>
+      <c r="B18" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>52</v>
+      <c r="B19" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>53</v>
+      <c r="B20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>54</v>
+      <c r="B21" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>55</v>
+      <c r="B22" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>56</v>
+      <c r="B23" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>59</v>
+      <c r="B24" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>61</v>
+      <c r="B25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>62</v>
+      <c r="B26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>64</v>
+      <c r="B27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>69</v>
+      <c r="B28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>72</v>
+      <c r="B29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>74</v>
+      <c r="B30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="31">
